--- a/INDIANGAMER.xlsx
+++ b/INDIANGAMER.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="CPU" sheetId="2" r:id="rId2"/>
     <sheet name="CPU Cooler" sheetId="3" r:id="rId3"/>
-    <sheet name="Motherboard" sheetId="4" r:id="rId4"/>
-    <sheet name="RAM" sheetId="5" r:id="rId5"/>
+    <sheet name="RAM" sheetId="5" r:id="rId4"/>
+    <sheet name="Motherboard" sheetId="4" r:id="rId5"/>
     <sheet name="PSU" sheetId="7" r:id="rId6"/>
     <sheet name="Mobos" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -29,8 +29,413 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Piyush Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="J27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Corsair</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TT
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Corsair
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2TB HDD from md
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2TB HDD from md
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2TB HDD from md
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2TB HDD from md
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2TB HDD from md
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2TB HDD from md
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2TB HDD from md
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Corsair</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TT
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Corsair
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piyush Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Better PSU*CM-TX*</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="138">
   <si>
     <t xml:space="preserve">Intel Core i5 6500 </t>
   </si>
@@ -91,24 +496,15 @@
     <t>MY BUILD</t>
   </si>
   <si>
-    <t>Zotac GTX1080 AMP! Extreme Edition - </t>
-  </si>
-  <si>
     <t xml:space="preserve">AOC AG241QX - AGON SERIES 24 INCH </t>
   </si>
   <si>
     <t>Accessories, table mouse keyboard headset etc</t>
   </si>
   <si>
-    <t>Corsair CX600</t>
-  </si>
-  <si>
     <t>Rs.6,250</t>
   </si>
   <si>
-    <t>  7,315</t>
-  </si>
-  <si>
     <t>Corsair Carbide SPEC-ALPHA</t>
   </si>
   <si>
@@ -151,12 +547,6 @@
     <t>ADATA DESKTOP RAM XPG SPECTRIX D40 SERIES</t>
   </si>
   <si>
-    <t>CASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>i5 8600k</t>
   </si>
   <si>
@@ -416,13 +806,67 @@
   </si>
   <si>
     <t>Cooler Master  MWE 650</t>
+  </si>
+  <si>
+    <t>Vedant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corsair TX 650M </t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Corsair TX 650</t>
+  </si>
+  <si>
+    <t>Lowest</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Corsair TX 650/Cooler Master GX650M/TT RGB 650</t>
+  </si>
+  <si>
+    <t>Adata SPRCTIX /Corsair Vengeance</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>NZXT S340 ELITE MATTE BLACK/RED</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>HeadSet</t>
+  </si>
+  <si>
+    <t>Seasage 2tb Firecuda</t>
+  </si>
+  <si>
+    <t>GPU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,8 +924,36 @@
       <color rgb="FF555555"/>
       <name val="FjallaOneRegular"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,8 +990,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -555,12 +1051,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -592,16 +1099,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -882,12 +1423,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:O41"/>
+  <dimension ref="A2:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -981,45 +1522,58 @@
         <v>13</v>
       </c>
     </row>
+    <row r="20" spans="1:15">
+      <c r="I20" s="38"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="I21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4">
         <v>22390</v>
@@ -1030,64 +1584,88 @@
       <c r="D22" s="4">
         <v>21865</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4">
+        <v>20950</v>
+      </c>
       <c r="F22">
         <v>21500</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="G22">
+        <f>MIN(B22,C22,D22,E22,F22)</f>
+        <v>20450</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="22">
         <v>15740</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="23">
         <v>14400</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="22">
         <v>15175</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22">
-        <v>18200</v>
+      <c r="M22" s="22">
+        <v>14900</v>
+      </c>
+      <c r="N22" s="20">
+        <v>14500</v>
+      </c>
+      <c r="O22" s="20">
+        <f>MIN(J22:N22)</f>
+        <v>14400</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="9" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4">
+        <v>7500</v>
+      </c>
+      <c r="C23" s="4">
+        <v>7350</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8140</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7500</v>
+      </c>
+      <c r="F23">
+        <v>7700</v>
+      </c>
+      <c r="G23">
+        <f>MIN(B23,C23,D23,E23,F23)</f>
+        <v>7350</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="33">
         <v>5640</v>
       </c>
-      <c r="C23" s="4">
+      <c r="K23" s="33">
         <v>5300</v>
       </c>
-      <c r="D23" s="4">
+      <c r="L23" s="33">
         <v>5420</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23">
+      <c r="M23" s="33">
+        <v>4750</v>
+      </c>
+      <c r="N23" s="32">
         <v>6250</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="4">
-        <v>7500</v>
-      </c>
-      <c r="K23" s="4">
-        <v>7350</v>
-      </c>
-      <c r="L23" s="4">
-        <v>8140</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23">
-        <v>7700</v>
+      <c r="O23" s="32">
+        <f>MIN(J23,K23,L23,M23,N23)</f>
+        <v>4750</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B24" s="4">
         <v>17500</v>
@@ -1096,102 +1674,136 @@
         <v>15600</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="E24" s="4">
+        <v>15650</v>
+      </c>
       <c r="F24">
         <v>16800</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="G24">
+        <f t="shared" ref="G24:G29" si="0">MIN(B24,C24,D24,E24,F24)</f>
+        <v>15600</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="22">
         <v>17500</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="23">
         <v>15600</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24">
-        <v>16800</v>
+      <c r="L24" s="22">
+        <v>16205</v>
+      </c>
+      <c r="M24" s="22">
+        <v>15650</v>
+      </c>
+      <c r="N24" s="20">
+        <v>15800</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" ref="O24:O29" si="1">MIN(J24:N24)</f>
+        <v>15600</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5">
         <v>6900</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="5">
+        <v>6680</v>
+      </c>
       <c r="F25" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>6680</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="I25" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="34">
         <v>6900</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5" t="s">
-        <v>23</v>
+      <c r="K25" s="34">
+        <v>6990</v>
+      </c>
+      <c r="L25" s="34">
+        <v>7100</v>
+      </c>
+      <c r="M25" s="34">
+        <v>6900</v>
+      </c>
+      <c r="N25" s="34">
+        <v>7000</v>
+      </c>
+      <c r="O25" s="32">
+        <f t="shared" si="1"/>
+        <v>6900</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="18">
         <v>3448</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="18">
         <v>3250</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="18">
         <v>3345</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
         <v>3500</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>3250</v>
+      </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="30">
         <v>3448</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="30">
         <v>3250</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="30">
         <v>3345</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26">
+      <c r="M26" s="31">
+        <v>3100</v>
+      </c>
+      <c r="N26" s="32">
         <v>3500</v>
+      </c>
+      <c r="O26" s="32">
+        <f t="shared" si="1"/>
+        <v>3100</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="9" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
@@ -1202,232 +1814,601 @@
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27">
+        <v>6840</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>6840</v>
+      </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="I27" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="24">
+        <v>8100</v>
+      </c>
+      <c r="K27" s="24">
+        <v>7190</v>
+      </c>
+      <c r="L27" s="27">
+        <v>6045</v>
+      </c>
+      <c r="M27" s="20">
+        <v>6470</v>
+      </c>
+      <c r="N27" s="20">
+        <v>6900</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="1"/>
+        <v>6045</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6990</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7810</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>6990</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="31">
+        <v>6990</v>
+      </c>
+      <c r="K28" s="31">
+        <v>6250</v>
+      </c>
+      <c r="L28" s="33">
+        <v>7810</v>
+      </c>
+      <c r="M28" s="33">
+        <v>6920</v>
+      </c>
+      <c r="N28" s="32">
+        <v>7050</v>
+      </c>
+      <c r="O28" s="32">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29">
+        <v>7800</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>7800</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="21">
+        <v>9200</v>
+      </c>
+      <c r="K29" s="20">
+        <v>8200</v>
+      </c>
+      <c r="L29" s="20">
+        <v>8140</v>
+      </c>
+      <c r="M29" s="20">
+        <v>7800</v>
+      </c>
+      <c r="N29" s="28">
+        <v>7800</v>
+      </c>
+      <c r="O29" s="20">
+        <f t="shared" si="1"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="8">
+        <f>SUM(G22:G29)</f>
+        <v>74960</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="25">
+        <f t="shared" ref="J30:O30" si="2">SUM(J22:J29)</f>
+        <v>73518</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" si="2"/>
+        <v>67180</v>
+      </c>
+      <c r="L30" s="25">
+        <f t="shared" si="2"/>
+        <v>69240</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" si="2"/>
+        <v>66490</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="2"/>
+        <v>68800</v>
+      </c>
+      <c r="O30" s="19">
+        <f t="shared" si="2"/>
+        <v>64845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B28">
-        <v>39000</v>
-      </c>
-      <c r="C28">
-        <v>39000</v>
-      </c>
-      <c r="D28">
-        <v>39000</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28">
-        <v>39000</v>
-      </c>
-      <c r="K28">
-        <v>39000</v>
-      </c>
-      <c r="L28">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="4">
-        <v>7810</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="I29" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="4">
-        <v>7810</v>
-      </c>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="8">
-        <f>SUM(G22:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="O31" s="8">
-        <f>SUM(O22:O30)</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="3">
+        <v>30377</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="J31" s="3"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="3">
-        <v>30377</v>
-      </c>
       <c r="G32" s="15"/>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="3">
-        <v>30377</v>
-      </c>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>18</v>
+      <c r="I32" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="C33">
+        <v>65000</v>
       </c>
       <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="C34">
-        <v>65000</v>
-      </c>
+      <c r="I33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="22">
+        <v>15740</v>
+      </c>
+      <c r="K34" s="23">
+        <v>14400</v>
+      </c>
+      <c r="L34" s="22">
+        <v>15175</v>
+      </c>
+      <c r="M34" s="22">
+        <v>14900</v>
+      </c>
+      <c r="N34" s="20">
+        <v>14500</v>
+      </c>
+      <c r="O34" s="20">
+        <v>20500</v>
+      </c>
+      <c r="P34">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
       <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="33">
+        <v>5640</v>
+      </c>
+      <c r="K35" s="33">
+        <v>5300</v>
+      </c>
+      <c r="L35" s="33">
+        <v>5420</v>
+      </c>
+      <c r="M35" s="33">
+        <v>4750</v>
+      </c>
+      <c r="N35" s="32">
+        <v>6250</v>
+      </c>
+      <c r="O35" s="32">
+        <f>MIN(J35,K35,L35,M35,N35)</f>
+        <v>4750</v>
+      </c>
+      <c r="P35" s="40">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>31</v>
+      <c r="I36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="22">
+        <v>17500</v>
+      </c>
+      <c r="K36" s="23">
+        <v>15600</v>
+      </c>
+      <c r="L36" s="22">
+        <v>16205</v>
+      </c>
+      <c r="M36" s="22">
+        <v>15650</v>
+      </c>
+      <c r="N36" s="20">
+        <v>15800</v>
+      </c>
+      <c r="O36" s="20">
+        <f t="shared" ref="O36:O41" si="3">MIN(J36:N36)</f>
+        <v>15600</v>
+      </c>
+      <c r="P36">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>12200</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>7300</v>
       </c>
       <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="34">
+        <v>6900</v>
+      </c>
+      <c r="K37" s="34">
+        <v>6990</v>
+      </c>
+      <c r="L37" s="34">
+        <v>7100</v>
+      </c>
+      <c r="M37" s="34">
+        <v>6900</v>
+      </c>
+      <c r="N37" s="34">
+        <v>7000</v>
+      </c>
+      <c r="O37" s="32">
+        <f t="shared" si="3"/>
+        <v>6900</v>
+      </c>
+      <c r="P37" s="39">
+        <v>6680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38">
-        <v>12200</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38">
-        <v>7300</v>
+        <v>24</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7900</v>
+      </c>
+      <c r="C38">
+        <v>7615</v>
+      </c>
+      <c r="D38">
+        <v>7700</v>
       </c>
       <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="40">
+        <v>4835</v>
+      </c>
+      <c r="K38" s="40">
+        <v>4835</v>
+      </c>
+      <c r="L38" s="40">
+        <v>4835</v>
+      </c>
+      <c r="M38" s="40">
+        <v>4835</v>
+      </c>
+      <c r="N38" s="40">
+        <v>4835</v>
+      </c>
+      <c r="O38" s="40">
+        <v>4835</v>
+      </c>
+      <c r="P38" s="40">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="4">
-        <v>7900</v>
-      </c>
-      <c r="C39">
-        <v>7615</v>
-      </c>
-      <c r="D39">
-        <v>7700</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B39" s="5">
+        <v>6398</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5890</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5505</v>
+      </c>
+      <c r="E39" s="5"/>
       <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="5">
-        <v>6398</v>
-      </c>
-      <c r="C40" s="5">
-        <v>5890</v>
-      </c>
-      <c r="D40" s="5">
-        <v>5505</v>
-      </c>
-      <c r="E40" s="5"/>
+      <c r="I39" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="31">
+        <v>8100</v>
+      </c>
+      <c r="K39" s="31">
+        <v>7190</v>
+      </c>
+      <c r="L39" s="31">
+        <v>6045</v>
+      </c>
+      <c r="M39" s="32">
+        <v>6470</v>
+      </c>
+      <c r="N39" s="32">
+        <v>6500</v>
+      </c>
+      <c r="O39" s="32">
+        <f t="shared" si="3"/>
+        <v>6045</v>
+      </c>
+      <c r="P39" s="40">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="G41" s="15"/>
+      <c r="I40" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J40" s="31">
+        <v>6990</v>
+      </c>
+      <c r="K40" s="31">
+        <v>6250</v>
+      </c>
+      <c r="L40" s="33">
+        <v>7810</v>
+      </c>
+      <c r="M40" s="33">
+        <v>6920</v>
+      </c>
+      <c r="N40" s="32">
+        <v>7050</v>
+      </c>
+      <c r="O40" s="32">
+        <f t="shared" si="3"/>
+        <v>6250</v>
+      </c>
+      <c r="P40" s="41">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="I41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" s="21">
+        <v>9200</v>
+      </c>
+      <c r="K41" s="20">
+        <v>8200</v>
+      </c>
+      <c r="L41" s="20">
+        <v>8140</v>
+      </c>
+      <c r="M41" s="20">
+        <v>7800</v>
+      </c>
+      <c r="N41" s="28">
+        <v>7800</v>
+      </c>
+      <c r="O41" s="20">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+      <c r="P41" s="20">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="I42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="25">
+        <f t="shared" ref="J42:O42" si="4">SUM(J34:J41)</f>
+        <v>74905</v>
+      </c>
+      <c r="K42" s="25">
+        <f t="shared" si="4"/>
+        <v>68765</v>
+      </c>
+      <c r="L42" s="25">
+        <f t="shared" si="4"/>
+        <v>70730</v>
+      </c>
+      <c r="M42" s="25">
+        <f t="shared" si="4"/>
+        <v>68225</v>
+      </c>
+      <c r="N42" s="25">
+        <f t="shared" si="4"/>
+        <v>69735</v>
+      </c>
+      <c r="O42" s="19">
+        <f t="shared" si="4"/>
+        <v>72680</v>
+      </c>
+      <c r="P42" s="42">
+        <f>SUM(P34:P41)</f>
+        <v>74385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="I44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="I45" t="s">
+        <v>133</v>
+      </c>
+      <c r="O45">
+        <v>5500</v>
+      </c>
+      <c r="P45">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="I46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="I47" t="s">
+        <v>131</v>
+      </c>
+      <c r="O47">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="P48">
+        <f>SUM(P34:P47)</f>
+        <v>154270</v>
+      </c>
+      <c r="Q48">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="49" spans="9:16">
+      <c r="I49" t="s">
+        <v>137</v>
+      </c>
+      <c r="O49">
+        <v>42000</v>
+      </c>
+      <c r="P49">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="50" spans="9:16">
+      <c r="O50">
+        <f>SUM(O42:O49)</f>
+        <v>150680</v>
+      </c>
+      <c r="P50">
+        <f>SUM(P48:P49)</f>
+        <v>196270</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" display="http://www.amazon.in/gp/offer-listing/B00OAJ412U/ref=sr_1_sc_2_olp?s=computers&amp;ie=UTF8&amp;qid=1494503730&amp;sr=1-2-spell&amp;keywords=sasmsung+750+evo"/>
-    <hyperlink ref="C40" r:id="rId2" display="https://www.mdcomputers.in/corsair-mid-tower-cabinet-atx-spec-alpha-black-red-cc-9011085-ww"/>
-    <hyperlink ref="D40" r:id="rId3" display="https://www.theitdepot.com/details-Corsair+Carbide+Series+Spec-Alpha+Mid-Tower+Gaming+Case+Black-Red+(CC-9011085-WW)_C5P26885.html"/>
-    <hyperlink ref="B40" r:id="rId4" display="http://www.amazon.in/Corsair-Carbide-SPEC-ALPHA-Mid-tower-Radiator/dp/B017XPPH9I/ref=sr_1_14?s=computers&amp;ie=UTF8&amp;qid=1492616549&amp;sr=1-14&amp;keywords=cabinet"/>
-    <hyperlink ref="D29" r:id="rId5" display="https://www.theitdepot.com/products-Solid+State+Drive+(SSD)_C93.html"/>
-    <hyperlink ref="B39" r:id="rId6" display="http://www.amazon.in/NZXT-Tower-CA-S340MB-GR-Matte-Black/dp/B00T4BWUUY/ref=sr_1_cc_1?s=aps&amp;ie=UTF8&amp;qid=1497369030&amp;sr=1-1-catcorr&amp;keywords=nzxt+S340"/>
-    <hyperlink ref="J29" r:id="rId7" display="http://www.amazon.in/gp/offer-listing/B00OAJ412U/ref=sr_1_sc_2_olp?s=computers&amp;ie=UTF8&amp;qid=1494503730&amp;sr=1-2-spell&amp;keywords=sasmsung+750+evo"/>
-    <hyperlink ref="L29" r:id="rId8" display="https://www.theitdepot.com/products-Solid+State+Drive+(SSD)_C93.html"/>
-    <hyperlink ref="J22" r:id="rId9" display="https://www.amazon.in/Intel-BX80684I58400-Core-i5-8400-Processor/dp/B0759FGJ3Q/ref=sr_1_1?ie=UTF8&amp;qid=1513183476&amp;sr=8-1&amp;keywords=i5+8400"/>
-    <hyperlink ref="L22" r:id="rId10" display="https://www.theitdepot.com/details-Intel+Core+i5-8400+2.80+GHz+Processor_C30P29226.html"/>
-    <hyperlink ref="K22" r:id="rId11" display="https://www.mdcomputers.in/processor/intel-core-i5-8400.html"/>
-    <hyperlink ref="D22" r:id="rId12" display="https://www.theitdepot.com/details-Intel+Core+i5-8600K+3.60GHz+Processor_C30P29292.html"/>
-    <hyperlink ref="C22" r:id="rId13" display="https://www.mdcomputers.in/processor/intel-core-i5-8600k.html"/>
-    <hyperlink ref="B22" r:id="rId14" display="https://www.amazon.in/Intel-Generation-BX80684I58600K-Processor-Graphics/dp/B0759FKH8K/ref=sr_1_1?s=computers&amp;ie=UTF8&amp;qid=1513183681&amp;sr=1-1&amp;keywords=i5+8600k"/>
-    <hyperlink ref="B23" r:id="rId15" display="https://www.amazon.in/Corsair-Hydro-H60-Cooler-CWCH60/dp/B004MYFOE2/ref=sr_1_2?ie=UTF8&amp;qid=1513183750&amp;sr=8-2&amp;keywords=corsair+h60"/>
-    <hyperlink ref="C23" r:id="rId16" display="https://www.mdcomputers.in/corsair-liquid-cooler-h60-cw-9060007-ww.html?search=h60&amp;description=true"/>
-    <hyperlink ref="D23" r:id="rId17" display="https://www.theitdepot.com/details-Corsair+Hydro+Series+H60+High+Performance+Liquid+CPU+Cooler+(CW-9060007-WW)_C10P13063.html"/>
-    <hyperlink ref="L23" r:id="rId18" display="https://www.theitdepot.com/details-Corsair+Hydro+Series+H80i+v2+High+Performance+Liquid+CPU+Cooler+(CW-9060024-WW)_C10P26623.html"/>
-    <hyperlink ref="K23" r:id="rId19" display="https://www.mdcomputers.in/corsair-liquid-cooler-h80i-v2-cw-9060024-ww.html?search=h80&amp;description=true"/>
-    <hyperlink ref="J23" r:id="rId20" display="https://www.amazon.in/Corsair-Performance-Liquid-CW-9060017-WW-LGA1150/dp/B00SV7IIDU/ref=sr_1_fkmr0_1?s=computers&amp;ie=UTF8&amp;qid=1513184055&amp;sr=1-1-fkmr0&amp;keywords=h80i+v2"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://www.amazon.in/PRIME-LGA1151-Motherboard-Generation-Processors/dp/B075RJHN2D/ref=sr_1_1?ie=UTF8&amp;qid=1513184109&amp;sr=8-1&amp;keywords=asus+prime+z370-A"/>
-    <hyperlink ref="C24" r:id="rId22" display="https://www.mdcomputers.in/asus-prime-z370-a.html?search=asus%20prime%20z370&amp;description=true"/>
-    <hyperlink ref="J24" r:id="rId23" display="https://www.amazon.in/PRIME-LGA1151-Motherboard-Generation-Processors/dp/B075RJHN2D/ref=sr_1_1?ie=UTF8&amp;qid=1513184109&amp;sr=8-1&amp;keywords=asus+prime+z370-A"/>
-    <hyperlink ref="K24" r:id="rId24" display="https://www.mdcomputers.in/asus-prime-z370-a.html?search=asus%20prime%20z370&amp;description=true"/>
-    <hyperlink ref="C26" r:id="rId25" display="https://www.mdcomputers.in/western-digital-1tb-blue-wd10ezex.html?search=WD%20BLUE&amp;description=true"/>
-    <hyperlink ref="D26" r:id="rId26" display="https://www.theitdepot.com/details-Western+Digital+Blue+1TB+SATA+Internal+Desktop+Hard+Drive+(WD10EZEX)_C12P24121.html"/>
-    <hyperlink ref="B26" r:id="rId27" display="https://www.amazon.in/Blue-Desktop-Internal-Drive-WD10EZEX/dp/B0088PUEPK/ref=sr_1_1?ie=UTF8&amp;qid=1513186012&amp;sr=8-1&amp;keywords=WD+BLUE"/>
-    <hyperlink ref="K26" r:id="rId28" display="https://www.mdcomputers.in/western-digital-1tb-blue-wd10ezex.html?search=WD%20BLUE&amp;description=true"/>
-    <hyperlink ref="L26" r:id="rId29" display="https://www.theitdepot.com/details-Western+Digital+Blue+1TB+SATA+Internal+Desktop+Hard+Drive+(WD10EZEX)_C12P24121.html"/>
-    <hyperlink ref="J26" r:id="rId30" display="https://www.amazon.in/Blue-Desktop-Internal-Drive-WD10EZEX/dp/B0088PUEPK/ref=sr_1_1?ie=UTF8&amp;qid=1513186012&amp;sr=8-1&amp;keywords=WD+BLUE"/>
+    <hyperlink ref="B28" r:id="rId1" display="http://www.amazon.in/gp/offer-listing/B00OAJ412U/ref=sr_1_sc_2_olp?s=computers&amp;ie=UTF8&amp;qid=1494503730&amp;sr=1-2-spell&amp;keywords=sasmsung+750+evo"/>
+    <hyperlink ref="C39" r:id="rId2" display="https://www.mdcomputers.in/corsair-mid-tower-cabinet-atx-spec-alpha-black-red-cc-9011085-ww"/>
+    <hyperlink ref="D39" r:id="rId3" display="https://www.theitdepot.com/details-Corsair+Carbide+Series+Spec-Alpha+Mid-Tower+Gaming+Case+Black-Red+(CC-9011085-WW)_C5P26885.html"/>
+    <hyperlink ref="B39" r:id="rId4" display="http://www.amazon.in/Corsair-Carbide-SPEC-ALPHA-Mid-tower-Radiator/dp/B017XPPH9I/ref=sr_1_14?s=computers&amp;ie=UTF8&amp;qid=1492616549&amp;sr=1-14&amp;keywords=cabinet"/>
+    <hyperlink ref="D28" r:id="rId5" display="https://www.theitdepot.com/products-Solid+State+Drive+(SSD)_C93.html"/>
+    <hyperlink ref="B38" r:id="rId6" display="http://www.amazon.in/NZXT-Tower-CA-S340MB-GR-Matte-Black/dp/B00T4BWUUY/ref=sr_1_cc_1?s=aps&amp;ie=UTF8&amp;qid=1497369030&amp;sr=1-1-catcorr&amp;keywords=nzxt+S340"/>
+    <hyperlink ref="J22" r:id="rId7" display="https://www.amazon.in/Intel-BX80684I58400-Core-i5-8400-Processor/dp/B0759FGJ3Q/ref=sr_1_1?ie=UTF8&amp;qid=1513183476&amp;sr=8-1&amp;keywords=i5+8400"/>
+    <hyperlink ref="L22" r:id="rId8" display="https://www.theitdepot.com/details-Intel+Core+i5-8400+2.80+GHz+Processor_C30P29226.html"/>
+    <hyperlink ref="K22" r:id="rId9" display="https://www.mdcomputers.in/processor/intel-core-i5-8400.html"/>
+    <hyperlink ref="D22" r:id="rId10" display="https://www.theitdepot.com/details-Intel+Core+i5-8600K+3.60GHz+Processor_C30P29292.html"/>
+    <hyperlink ref="C22" r:id="rId11" display="https://www.mdcomputers.in/processor/intel-core-i5-8600k.html"/>
+    <hyperlink ref="B22" r:id="rId12" display="https://www.amazon.in/Intel-Generation-BX80684I58600K-Processor-Graphics/dp/B0759FKH8K/ref=sr_1_1?s=computers&amp;ie=UTF8&amp;qid=1513183681&amp;sr=1-1&amp;keywords=i5+8600k"/>
+    <hyperlink ref="J23" r:id="rId13" display="https://www.amazon.in/Corsair-Hydro-H60-Cooler-CWCH60/dp/B004MYFOE2/ref=sr_1_2?ie=UTF8&amp;qid=1513183750&amp;sr=8-2&amp;keywords=corsair+h60"/>
+    <hyperlink ref="K23" r:id="rId14" display="https://www.mdcomputers.in/corsair-liquid-cooler-h60-cw-9060007-ww.html?search=h60&amp;description=true"/>
+    <hyperlink ref="L23" r:id="rId15" display="https://www.theitdepot.com/details-Corsair+Hydro+Series+H60+High+Performance+Liquid+CPU+Cooler+(CW-9060007-WW)_C10P13063.html"/>
+    <hyperlink ref="B24" r:id="rId16" display="https://www.amazon.in/PRIME-LGA1151-Motherboard-Generation-Processors/dp/B075RJHN2D/ref=sr_1_1?ie=UTF8&amp;qid=1513184109&amp;sr=8-1&amp;keywords=asus+prime+z370-A"/>
+    <hyperlink ref="C24" r:id="rId17" display="https://www.mdcomputers.in/asus-prime-z370-a.html?search=asus%20prime%20z370&amp;description=true"/>
+    <hyperlink ref="J24" r:id="rId18" display="https://www.amazon.in/PRIME-LGA1151-Motherboard-Generation-Processors/dp/B075RJHN2D/ref=sr_1_1?ie=UTF8&amp;qid=1513184109&amp;sr=8-1&amp;keywords=asus+prime+z370-A"/>
+    <hyperlink ref="K24" r:id="rId19" display="https://www.mdcomputers.in/asus-prime-z370-a.html?search=asus%20prime%20z370&amp;description=true"/>
+    <hyperlink ref="C26" r:id="rId20" display="https://www.mdcomputers.in/western-digital-1tb-blue-wd10ezex.html?search=WD%20BLUE&amp;description=true"/>
+    <hyperlink ref="D26" r:id="rId21" display="https://www.theitdepot.com/details-Western+Digital+Blue+1TB+SATA+Internal+Desktop+Hard+Drive+(WD10EZEX)_C12P24121.html"/>
+    <hyperlink ref="B26" r:id="rId22" display="https://www.amazon.in/Blue-Desktop-Internal-Drive-WD10EZEX/dp/B0088PUEPK/ref=sr_1_1?ie=UTF8&amp;qid=1513186012&amp;sr=8-1&amp;keywords=WD+BLUE"/>
+    <hyperlink ref="K26" r:id="rId23" display="https://www.mdcomputers.in/western-digital-1tb-blue-wd10ezex.html?search=WD%20BLUE&amp;description=true"/>
+    <hyperlink ref="L26" r:id="rId24" display="https://www.theitdepot.com/details-Western+Digital+Blue+1TB+SATA+Internal+Desktop+Hard+Drive+(WD10EZEX)_C12P24121.html"/>
+    <hyperlink ref="J26" r:id="rId25" display="https://www.amazon.in/Blue-Desktop-Internal-Drive-WD10EZEX/dp/B0088PUEPK/ref=sr_1_1?ie=UTF8&amp;qid=1513186012&amp;sr=8-1&amp;keywords=WD+BLUE"/>
+    <hyperlink ref="J28" r:id="rId26" display="http://www.amazon.in/gp/offer-listing/B00OAJ412U/ref=sr_1_sc_2_olp?s=computers&amp;ie=UTF8&amp;qid=1494503730&amp;sr=1-2-spell&amp;keywords=sasmsung+750+evo"/>
+    <hyperlink ref="L28" r:id="rId27" display="https://www.theitdepot.com/products-Solid+State+Drive+(SSD)_C93.html"/>
+    <hyperlink ref="D23" r:id="rId28" display="https://www.theitdepot.com/details-Corsair+Hydro+Series+H80i+v2+High+Performance+Liquid+CPU+Cooler+(CW-9060024-WW)_C10P26623.html"/>
+    <hyperlink ref="C23" r:id="rId29" display="https://www.mdcomputers.in/corsair-liquid-cooler-h80i-v2-cw-9060024-ww.html?search=h80&amp;description=true"/>
+    <hyperlink ref="B23" r:id="rId30" display="https://www.amazon.in/Corsair-Performance-Liquid-CW-9060017-WW-LGA1150/dp/B00SV7IIDU/ref=sr_1_fkmr0_1?s=computers&amp;ie=UTF8&amp;qid=1513184055&amp;sr=1-1-fkmr0&amp;keywords=h80i+v2"/>
+    <hyperlink ref="J34" r:id="rId31" display="https://www.amazon.in/Intel-BX80684I58400-Core-i5-8400-Processor/dp/B0759FGJ3Q/ref=sr_1_1?ie=UTF8&amp;qid=1513183476&amp;sr=8-1&amp;keywords=i5+8400"/>
+    <hyperlink ref="L34" r:id="rId32" display="https://www.theitdepot.com/details-Intel+Core+i5-8400+2.80+GHz+Processor_C30P29226.html"/>
+    <hyperlink ref="K34" r:id="rId33" display="https://www.mdcomputers.in/processor/intel-core-i5-8400.html"/>
+    <hyperlink ref="J35" r:id="rId34" display="https://www.amazon.in/Corsair-Hydro-H60-Cooler-CWCH60/dp/B004MYFOE2/ref=sr_1_2?ie=UTF8&amp;qid=1513183750&amp;sr=8-2&amp;keywords=corsair+h60"/>
+    <hyperlink ref="K35" r:id="rId35" display="https://www.mdcomputers.in/corsair-liquid-cooler-h60-cw-9060007-ww.html?search=h60&amp;description=true"/>
+    <hyperlink ref="L35" r:id="rId36" display="https://www.theitdepot.com/details-Corsair+Hydro+Series+H60+High+Performance+Liquid+CPU+Cooler+(CW-9060007-WW)_C10P13063.html"/>
+    <hyperlink ref="J36" r:id="rId37" display="https://www.amazon.in/PRIME-LGA1151-Motherboard-Generation-Processors/dp/B075RJHN2D/ref=sr_1_1?ie=UTF8&amp;qid=1513184109&amp;sr=8-1&amp;keywords=asus+prime+z370-A"/>
+    <hyperlink ref="K36" r:id="rId38" display="https://www.mdcomputers.in/asus-prime-z370-a.html?search=asus%20prime%20z370&amp;description=true"/>
+    <hyperlink ref="J40" r:id="rId39" display="http://www.amazon.in/gp/offer-listing/B00OAJ412U/ref=sr_1_sc_2_olp?s=computers&amp;ie=UTF8&amp;qid=1494503730&amp;sr=1-2-spell&amp;keywords=sasmsung+750+evo"/>
+    <hyperlink ref="L40" r:id="rId40" display="https://www.theitdepot.com/products-Solid+State+Drive+(SSD)_C93.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
+  <legacyDrawing r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -1443,10 +2424,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
       </c>
       <c r="C1">
         <v>21865</v>
@@ -1472,7 +2453,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>3452</v>
@@ -1480,7 +2461,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>4750</v>
@@ -1492,6 +2473,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="72.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75">
+      <c r="A3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>6770</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1506,7 +2522,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B1">
         <v>15650</v>
@@ -1517,47 +2533,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="72.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3">
-        <v>6720</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75">
-      <c r="A3" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3">
-        <v>6770</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1567,10 +2548,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B1">
         <v>5210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>6470</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +2572,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F1" sqref="F1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1596,159 +2585,159 @@
   <sheetData>
     <row r="1" spans="1:12" ht="63.75">
       <c r="A1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="63.75">
       <c r="A2" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="25.5">
       <c r="A4" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14">
         <v>10</v>
@@ -1786,233 +2775,233 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="51">
       <c r="A7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="I7" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="38.25">
       <c r="A8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="L9" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="36"/>
+      <c r="B10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="D10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="G10" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B12" s="14">
         <v>4</v>
@@ -2049,356 +3038,348 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="25.5">
-      <c r="A13" s="18" t="s">
-        <v>87</v>
+      <c r="A13" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="18"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="25.5">
+      <c r="A16" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="J16" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="K16" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="L16" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="25.5">
-      <c r="A16" s="18" t="s">
+    </row>
+    <row r="17" spans="1:12" ht="38.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="C18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="18" t="s">
+      <c r="I18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="L18" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="38.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="13" t="s">
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="36"/>
+      <c r="B19" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="13" t="s">
+      <c r="C19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="H19" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="17"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>105</v>
+      <c r="A21" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>100</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
     </row>
     <row r="23" spans="1:12" ht="25.5">
       <c r="A23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="J23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="K23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="L23" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
@@ -2415,11 +3396,19 @@
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
